--- a/Software/CNSWF.xlsx
+++ b/Software/CNSWF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7936071-92A9-7647-8785-2AC9C149984B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6150D0-30FB-814F-AB53-222CAAD7E28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1940,12 +1940,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>3423.95</v>
-    <v>2063</v>
-    <v>0.79200000000000004</v>
-    <v>12.53</v>
-    <v>4.0390000000000001E-3</v>
-    <v>6</v>
-    <v>1.926E-3</v>
+    <v>2072.4096</v>
+    <v>0.79210000000000003</v>
+    <v>60.6145</v>
+    <v>1.9459000000000001E-2</v>
+    <v>-2.6307999999999998</v>
+    <v>-8.2839999999999997E-4</v>
     <v>USD</v>
     <v>Constellation Software Inc. is a provider of software and services to a select group of public and private sector markets. The Company acquires, manages, and builds vertical market software (VMS) businesses, which provide specialized, mission-critical software solutions that address the specific needs of its customers. It is engaged principally in the development, installation, and customization of software as well as in the provisioning of related professional services and support for customers globally. It sells on-premises software licenses on both a perpetual and specified-term basis. It has six operating groups, which service customers in over 100 different markets around the world. The six operating groups include Volaris, Harris, Topicus, Vela, Jonas, and Perseus Group. The Company operates offices in North America, Europe, Australia, South America and Africa.</v>
     <v>53000</v>
@@ -1953,25 +1953,25 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>#1200 - 20 Adelaide Street East, TORONTO, ON, M5C 2T6 CA</v>
-    <v>3122.1</v>
+    <v>3180</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45602.875504027346</v>
+    <v>45604.048611111109</v>
     <v>0</v>
-    <v>3050.56</v>
-    <v>90085620000</v>
+    <v>3110</v>
+    <v>92077200000</v>
     <v>Constellation Software Inc.</v>
     <v>Constellation Software Inc.</v>
-    <v>3120.5</v>
-    <v>101.7128</v>
-    <v>3102.47</v>
+    <v>3154.8</v>
+    <v>103.69199999999999</v>
     <v>3115</v>
-    <v>3121</v>
+    <v>3175.6145000000001</v>
+    <v>3172.9837000000002</v>
     <v>21191530</v>
     <v>CNSWF</v>
     <v>Constellation Software Inc. (OTCM:CNSWF)</v>
-    <v>2015</v>
-    <v>26310</v>
+    <v>1060</v>
+    <v>26460</v>
     <v>2002</v>
   </rv>
   <rv s="2">
@@ -2896,14 +2896,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>3115</v>
+        <v>3175.6145000000001</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>8.8719342131179832</v>
+        <v>9.0680716958833951</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2943,14 +2943,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>4.0390000000000001E-3</v>
+        <v>1.9459000000000001E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>60.217660427807488</v>
+        <v>61.548930481283421</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2991,14 +2991,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>90085620000</v>
+        <v>92077200000</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>2.9227750222510542E-2</v>
+        <v>2.8595569804468424E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3040,7 +3040,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>0.79200000000000004</v>
+        <v>0.79210000000000003</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>2.3040767299667753E-2</v>
+        <v>3.5134901098559101E-3</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>

--- a/Software/CNSWF.xlsx
+++ b/Software/CNSWF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6150D0-30FB-814F-AB53-222CAAD7E28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FB431C-926B-CF43-AB3D-9D08DB5D8933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1940,12 +1940,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>3423.95</v>
-    <v>2072.4096</v>
-    <v>0.79210000000000003</v>
-    <v>60.6145</v>
-    <v>1.9459000000000001E-2</v>
-    <v>-2.6307999999999998</v>
-    <v>-8.2839999999999997E-4</v>
+    <v>2273</v>
+    <v>0.79569999999999996</v>
+    <v>8.99</v>
+    <v>2.8479999999999998E-3</v>
+    <v>8.2958999999999996</v>
+    <v>2.6210000000000001E-3</v>
     <v>USD</v>
     <v>Constellation Software Inc. is a provider of software and services to a select group of public and private sector markets. The Company acquires, manages, and builds vertical market software (VMS) businesses, which provide specialized, mission-critical software solutions that address the specific needs of its customers. It is engaged principally in the development, installation, and customization of software as well as in the provisioning of related professional services and support for customers globally. It sells on-premises software licenses on both a perpetual and specified-term basis. It has six operating groups, which service customers in over 100 different markets around the world. The six operating groups include Volaris, Harris, Topicus, Vela, Jonas, and Perseus Group. The Company operates offices in North America, Europe, Australia, South America and Africa.</v>
     <v>53000</v>
@@ -1953,25 +1953,25 @@
     <v>OTCM</v>
     <v>OTCM</v>
     <v>#1200 - 20 Adelaide Street East, TORONTO, ON, M5C 2T6 CA</v>
-    <v>3180</v>
+    <v>3212.67</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45604.048611111109</v>
+    <v>45616.048611111109</v>
     <v>0</v>
-    <v>3110</v>
-    <v>92077200000</v>
+    <v>3107</v>
+    <v>94286840000</v>
     <v>Constellation Software Inc.</v>
     <v>Constellation Software Inc.</v>
-    <v>3154.8</v>
-    <v>103.69199999999999</v>
-    <v>3115</v>
-    <v>3175.6145000000001</v>
-    <v>3172.9837000000002</v>
+    <v>3107</v>
+    <v>104.6249</v>
+    <v>3156.3</v>
+    <v>3165.29</v>
+    <v>3173.5859</v>
     <v>21191530</v>
     <v>CNSWF</v>
     <v>Constellation Software Inc. (OTCM:CNSWF)</v>
-    <v>1060</v>
-    <v>26460</v>
+    <v>2463</v>
+    <v>25700</v>
     <v>2002</v>
   </rv>
   <rv s="2">
@@ -2896,14 +2896,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>3175.6145000000001</v>
+        <v>3165.29</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="41">
         <f ca="1">A5/F10</f>
-        <v>9.0680716958833951</v>
+        <v>9.2856844593263741</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2943,14 +2943,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.9459000000000001E-2</v>
+        <v>2.8479999999999998E-3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="41">
         <f ca="1">A5/F15</f>
-        <v>61.548930481283421</v>
+        <v>63.025962566844917</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2991,14 +2991,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>92077200000</v>
+        <v>94286840000</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="42">
         <f ca="1">F18/A5</f>
-        <v>2.8595569804468424E-2</v>
+        <v>2.7925424163117569E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3040,7 +3040,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>0.79210000000000003</v>
+        <v>0.79569999999999996</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="K6" s="48">
         <f ca="1">K5/A3-1</f>
-        <v>3.5134901098559101E-3</v>
+        <v>6.7867368040415155E-3</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
